--- a/tests/mockdata/mock_data.xlsx
+++ b/tests/mockdata/mock_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zzz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zzz\employeems\tests\mockdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>firstName</t>
   </si>
@@ -57,48 +57,12 @@
     <t>2020-11-24</t>
   </si>
   <si>
-    <t>Bytecard</t>
-  </si>
-  <si>
-    <t>gdows2@dell.com</t>
-  </si>
-  <si>
-    <t>2021-09-19</t>
-  </si>
-  <si>
-    <t>Biodex</t>
-  </si>
-  <si>
-    <t>ktopes3@loc.gov</t>
-  </si>
-  <si>
-    <t>2021-08-05</t>
-  </si>
-  <si>
-    <t>Toughjoyfax</t>
-  </si>
-  <si>
-    <t>mgready4@about.me</t>
-  </si>
-  <si>
-    <t>2021-05-15</t>
-  </si>
-  <si>
     <t>Great</t>
   </si>
   <si>
     <t>Phalarope</t>
   </si>
   <si>
-    <t>Kirk's</t>
-  </si>
-  <si>
-    <t>Reedbuck</t>
-  </si>
-  <si>
-    <t>Ring-tailed</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -114,12 +78,6 @@
     <t>TESTER</t>
   </si>
   <si>
-    <t>DESIGNER</t>
-  </si>
-  <si>
-    <t>DEVOPS</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -127,15 +85,6 @@
   </si>
   <si>
     <t>EMP4092</t>
-  </si>
-  <si>
-    <t>EMP3902</t>
-  </si>
-  <si>
-    <t>EMP2093</t>
-  </si>
-  <si>
-    <t>EMP3489</t>
   </si>
 </sst>
 </file>
@@ -452,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -488,18 +437,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -517,18 +466,18 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -546,101 +495,17 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>250781848923</v>
-      </c>
-      <c r="E4">
-        <v>1664882057078439</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>250781842103</v>
-      </c>
-      <c r="E5">
-        <v>1560960546708280</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>250781614724</v>
-      </c>
-      <c r="E6">
-        <v>1024143083187716</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
